--- a/outputs-GTDB-r202/g__Olsenella.xlsx
+++ b/outputs-GTDB-r202/g__Olsenella.xlsx
@@ -1048,7 +1048,7 @@
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>s__Olsenella profusa</t>
+          <t>s__Olsenella profusa(reject)</t>
         </is>
       </c>
     </row>
